--- a/Image Spreadsheet.xlsx
+++ b/Image Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koenmuller/Documents/GitHub/main-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D41DBA46-4060-8446-BDA6-25F4A2C1DA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFD1C8E-2C87-9546-AFEA-97323E8A5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{C53A2066-B209-174D-BAEC-ECB7A6E98ABC}"/>
+    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{C53A2066-B209-174D-BAEC-ECB7A6E98ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>DJI_20250119150525_0192_D-HDR.jpeg</t>
   </si>
@@ -56,12 +56,6 @@
     <t>northern_lights_drone_h56s.jpg</t>
   </si>
   <si>
-    <t>https://cdn.koenm.ca/web/</t>
-  </si>
-  <si>
-    <t>https://cdn.koenm.ca/cdn-cgi/image/width=300,quality=75,format=auto/originals/</t>
-  </si>
-  <si>
     <t>DSC00976.jpeg</t>
   </si>
   <si>
@@ -144,6 +138,33 @@
   </si>
   <si>
     <t>plant_sony_5g22.jpg</t>
+  </si>
+  <si>
+    <t>DJI_20250119142823_0159_D-HDR.jpeg</t>
+  </si>
+  <si>
+    <t>city_drone_87gh.jpg</t>
+  </si>
+  <si>
+    <t>DJI_20241201151829_0091_D.jpeg</t>
+  </si>
+  <si>
+    <t>school_drone_t6h2.jpg</t>
+  </si>
+  <si>
+    <t>DJI_20241010213039_0147_D.jpeg</t>
+  </si>
+  <si>
+    <t>northern_lights_drone_7gfd.jpg</t>
+  </si>
+  <si>
+    <t>DJI_20241006121240_0111_D.jpeg</t>
+  </si>
+  <si>
+    <t>city_drone_a6g2.jpg</t>
+  </si>
+  <si>
+    <t>10, 12, 13</t>
   </si>
 </sst>
 </file>
@@ -159,10 +180,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFCE9178"/>
-      <name val="Menlo"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,7 +209,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,159 +549,186 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="93.1640625" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
     <col min="3" max="3" width="36.83203125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="15" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B21" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
